--- a/GameData/Excel/monster.xlsx
+++ b/GameData/Excel/monster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19B93F8-56B7-4EC0-B126-D4D684B81FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874ED5F7-FA37-408E-9F61-4C9734B04964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="3960" windowWidth="34560" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="46296" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="monster" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -603,7 +603,7 @@
     </row>
     <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2000001</v>
+        <v>20001</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -618,12 +618,12 @@
         <v>15</v>
       </c>
       <c r="F4" s="3">
-        <v>200000101</v>
+        <v>2000101</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>2000001</v>
+        <v>20001</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -638,12 +638,12 @@
         <v>15</v>
       </c>
       <c r="F5" s="3">
-        <v>200000102</v>
+        <v>2000102</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>2000001</v>
+        <v>20001</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -658,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="3">
-        <v>200000103</v>
+        <v>2000103</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">

--- a/GameData/Excel/monster.xlsx
+++ b/GameData/Excel/monster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874ED5F7-FA37-408E-9F61-4C9734B04964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F727E35-D7FB-4D57-895D-5A6F5FBBC5AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="46296" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="monster" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>int</t>
   </si>
@@ -49,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>몬스터_임시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>actor_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +81,22 @@
   <si>
     <t>warrior</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_주술사</t>
+  </si>
+  <si>
+    <t>몬스터_탱커</t>
+  </si>
+  <si>
+    <t>shaman</t>
+  </si>
+  <si>
+    <t>tanker</t>
   </si>
 </sst>
 </file>
@@ -232,9 +233,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -272,7 +273,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -378,7 +379,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,81 +533,81 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.3984375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="3"/>
+    <col min="5" max="5" width="14.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>20001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -615,18 +616,18 @@
         <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3">
         <v>2000101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>20001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -635,18 +636,18 @@
         <v>100</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3">
         <v>2000102</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>20001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -655,57 +656,153 @@
         <v>120</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3">
         <v>2000103</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2000201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>120</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2000202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>240</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2000203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2000301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>90</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2000302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2000303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>

--- a/GameData/Excel/monster.xlsx
+++ b/GameData/Excel/monster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F727E35-D7FB-4D57-895D-5A6F5FBBC5AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DB38F5-77A1-4791-975C-BD114D6DB9D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>int</t>
   </si>
@@ -97,6 +97,10 @@
   </si>
   <si>
     <t>tanker</t>
+  </si>
+  <si>
+    <t>몬스터_전사_엘리트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -533,7 +537,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -783,8 +787,24 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1">
+        <v>20101</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>150</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2000101</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>

--- a/GameData/Excel/monster.xlsx
+++ b/GameData/Excel/monster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DB38F5-77A1-4791-975C-BD114D6DB9D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EBECD1-7273-4854-AF83-568E6EFA7E25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>int</t>
   </si>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>몬스터_전사_엘리트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_전사_보스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -617,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>14</v>
@@ -677,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>19</v>
@@ -737,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
@@ -797,18 +801,34 @@
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="3">
-        <v>2000101</v>
+        <v>2010101</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1">
+        <v>20201</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>160</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2020101</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>

--- a/GameData/Excel/monster.xlsx
+++ b/GameData/Excel/monster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EBECD1-7273-4854-AF83-568E6EFA7E25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33901C20-A85D-41CD-AF33-A3B561DE31A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>14</v>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
@@ -661,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>14</v>
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>19</v>
@@ -701,7 +701,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>19</v>
@@ -721,7 +721,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="3">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>19</v>
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>18</v>
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>18</v>
@@ -781,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>18</v>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>14</v>
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>14</v>

--- a/GameData/Excel/monster.xlsx
+++ b/GameData/Excel/monster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33901C20-A85D-41CD-AF33-A3B561DE31A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB500EA-65B2-4AE8-998C-820DAFF46DDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="28">
   <si>
     <t>int</t>
   </si>
@@ -104,6 +104,30 @@
   </si>
   <si>
     <t>몬스터_전사_보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,11 +561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -831,23 +855,488 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1">
+        <v>20011</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2001101</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A16" s="1">
+        <v>20011</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>120</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2001102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>20011</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>180</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2001103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>20011</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>240</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2001104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>70</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2001201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>140</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2001202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>210</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2001203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>280</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2001204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>20013</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>55</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2001301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>20013</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>110</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2001302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>20013</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>165</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2001303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>20013</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3">
+        <v>220</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2001304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>20111</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>150</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2011101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>20111</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>300</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2011102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>20111</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <v>450</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2011103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>20111</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3">
+        <v>600</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2011104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>20112</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>120</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2011201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>20112</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>240</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2011202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>20112</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3">
+        <v>360</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2011203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>20112</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3">
+        <v>480</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2011204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>20211</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2021101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>20211</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>600</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2021102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>20211</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3">
+        <v>900</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2021103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>20211</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2021104</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameData/Excel/monster.xlsx
+++ b/GameData/Excel/monster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB500EA-65B2-4AE8-998C-820DAFF46DDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993E83CD-4BAE-470C-9A06-13AA9E1A5B48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -565,7 +565,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R32" sqref="R32"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -856,7 +856,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>20011</v>
+        <v>21001</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>22</v>
@@ -871,12 +871,12 @@
         <v>14</v>
       </c>
       <c r="F15" s="3">
-        <v>2001101</v>
+        <v>2100101</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>20011</v>
+        <v>21001</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
@@ -891,12 +891,12 @@
         <v>14</v>
       </c>
       <c r="F16" s="3">
-        <v>2001102</v>
+        <v>2100102</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>20011</v>
+        <v>21001</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
@@ -911,12 +911,12 @@
         <v>14</v>
       </c>
       <c r="F17" s="3">
-        <v>2001103</v>
+        <v>2100103</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>20011</v>
+        <v>21001</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>22</v>
@@ -931,12 +931,12 @@
         <v>14</v>
       </c>
       <c r="F18" s="3">
-        <v>2001104</v>
+        <v>2100104</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>20012</v>
+        <v>21002</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>23</v>
@@ -945,18 +945,18 @@
         <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="3">
-        <v>2001201</v>
+        <v>2100201</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>20012</v>
+        <v>21002</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>23</v>
@@ -965,18 +965,18 @@
         <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="3">
-        <v>2001202</v>
+        <v>2100202</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>20012</v>
+        <v>21002</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>23</v>
@@ -985,18 +985,18 @@
         <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="3">
-        <v>2001203</v>
+        <v>2100203</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20012</v>
+        <v>21002</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
@@ -1005,18 +1005,18 @@
         <v>4</v>
       </c>
       <c r="D22" s="3">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="3">
-        <v>2001204</v>
+        <v>2100204</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>20013</v>
+        <v>21003</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
@@ -1025,18 +1025,18 @@
         <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="3">
-        <v>2001301</v>
+        <v>2100301</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>20013</v>
+        <v>21003</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
@@ -1045,18 +1045,18 @@
         <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="3">
-        <v>2001302</v>
+        <v>2100302</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>20013</v>
+        <v>21003</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -1065,18 +1065,18 @@
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="3">
-        <v>2001303</v>
+        <v>2100303</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>20013</v>
+        <v>21003</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -1085,18 +1085,18 @@
         <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="3">
-        <v>2001304</v>
+        <v>2100304</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>20111</v>
+        <v>21101</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>25</v>
@@ -1111,12 +1111,12 @@
         <v>14</v>
       </c>
       <c r="F27" s="3">
-        <v>2011101</v>
+        <v>2110101</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>20111</v>
+        <v>21101</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>25</v>
@@ -1131,12 +1131,12 @@
         <v>14</v>
       </c>
       <c r="F28" s="3">
-        <v>2011102</v>
+        <v>2110102</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>20111</v>
+        <v>21101</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>25</v>
@@ -1151,12 +1151,12 @@
         <v>14</v>
       </c>
       <c r="F29" s="3">
-        <v>2011103</v>
+        <v>2110103</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>20111</v>
+        <v>21101</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>25</v>
@@ -1171,12 +1171,12 @@
         <v>14</v>
       </c>
       <c r="F30" s="3">
-        <v>2011104</v>
+        <v>2110104</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>20112</v>
+        <v>21102</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>26</v>
@@ -1185,18 +1185,18 @@
         <v>1</v>
       </c>
       <c r="D31" s="3">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="3">
-        <v>2011201</v>
+        <v>2110201</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>20112</v>
+        <v>21102</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>26</v>
@@ -1205,18 +1205,18 @@
         <v>2</v>
       </c>
       <c r="D32" s="3">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="3">
-        <v>2011202</v>
+        <v>2110202</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>20112</v>
+        <v>21102</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>26</v>
@@ -1225,18 +1225,18 @@
         <v>3</v>
       </c>
       <c r="D33" s="3">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="3">
-        <v>2011203</v>
+        <v>2110203</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>20112</v>
+        <v>21102</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>26</v>
@@ -1245,18 +1245,18 @@
         <v>4</v>
       </c>
       <c r="D34" s="3">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="3">
-        <v>2011204</v>
+        <v>2110204</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>20211</v>
+        <v>21201</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>27</v>
@@ -1271,12 +1271,12 @@
         <v>14</v>
       </c>
       <c r="F35" s="3">
-        <v>2021101</v>
+        <v>2120101</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>20211</v>
+        <v>21201</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>27</v>
@@ -1291,12 +1291,12 @@
         <v>14</v>
       </c>
       <c r="F36" s="3">
-        <v>2021102</v>
+        <v>2120102</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>20211</v>
+        <v>21201</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>27</v>
@@ -1311,12 +1311,12 @@
         <v>14</v>
       </c>
       <c r="F37" s="3">
-        <v>2021103</v>
+        <v>2120103</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>20211</v>
+        <v>21201</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>27</v>
@@ -1331,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="3">
-        <v>2021104</v>
+        <v>2120104</v>
       </c>
     </row>
   </sheetData>
